--- a/assets/docs/Exa_8.4F.xlsx
+++ b/assets/docs/Exa_8.4F.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,8 +15,11 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -473,14 +476,14 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
-    <col min="5" max="5" width="22.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="8" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="12.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" thickBot="1">
+    <row r="2" spans="1:7" ht="12.95" thickBot="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -505,7 +508,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13">
+    <row r="3" spans="1:7" ht="12.95">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -600,7 +603,7 @@
         <v>0.86333500407645425</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25">
+    <row r="8" spans="1:7" ht="24.95">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -684,7 +687,7 @@
         <v>1.8335634775162177E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13" thickBot="1">
+    <row r="14" spans="1:7" ht="12.95" thickBot="1">
       <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
